--- a/Ballistic data for M821 HE shell (4 Rings).xlsx
+++ b/Ballistic data for M821 HE shell (4 Rings).xlsx
@@ -61,8 +61,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -572,54 +571,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" ht="12.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="A2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>1531</v>
-      </c>
-      <c r="C2">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="3" ht="12.75">
       <c r="A3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="B3">
-        <v>1514</v>
+        <v>1531</v>
       </c>
       <c r="C3">
-        <v>36.200000000000003</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D3">
         <v>9</v>
@@ -630,10 +620,10 @@
     </row>
     <row r="4" ht="12.75">
       <c r="A4">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="B4">
-        <v>1496</v>
+        <v>1514</v>
       </c>
       <c r="C4">
         <v>36.200000000000003</v>
@@ -642,35 +632,35 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.10000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="A5">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B5">
-        <v>1478</v>
+        <v>1496</v>
       </c>
       <c r="C5">
-        <v>36.100000000000001</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="6" ht="12.75">
       <c r="A6">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="B6">
-        <v>1460</v>
+        <v>1478</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>36.100000000000001</v>
       </c>
       <c r="D6">
         <v>9</v>
@@ -681,13 +671,13 @@
     </row>
     <row r="7" ht="12.75">
       <c r="A7">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="B7">
-        <v>1442</v>
+        <v>1460</v>
       </c>
       <c r="C7">
-        <v>35.899999999999999</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -698,16 +688,16 @@
     </row>
     <row r="8" ht="12.75">
       <c r="A8">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="B8">
-        <v>1424</v>
+        <v>1442</v>
       </c>
       <c r="C8">
-        <v>35.799999999999997</v>
+        <v>35.899999999999999</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -715,33 +705,33 @@
     </row>
     <row r="9" ht="12.75">
       <c r="A9">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="B9">
-        <v>1405</v>
+        <v>1424</v>
       </c>
       <c r="C9">
-        <v>35.700000000000003</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>0.10000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="A10">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="B10">
-        <v>1385</v>
+        <v>1405</v>
       </c>
       <c r="C10">
-        <v>35.600000000000001</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0.10000000000000001</v>
@@ -749,16 +739,16 @@
     </row>
     <row r="11" ht="12.75">
       <c r="A11">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="B11">
-        <v>1366</v>
+        <v>1385</v>
       </c>
       <c r="C11">
-        <v>35.399999999999999</v>
+        <v>35.600000000000001</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0.10000000000000001</v>
@@ -766,13 +756,13 @@
     </row>
     <row r="12" ht="12.75">
       <c r="A12">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="B12">
-        <v>1346</v>
+        <v>1366</v>
       </c>
       <c r="C12">
-        <v>35.299999999999997</v>
+        <v>35.399999999999999</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -783,16 +773,16 @@
     </row>
     <row r="13" ht="12.75">
       <c r="A13">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="B13">
-        <v>1326</v>
+        <v>1346</v>
       </c>
       <c r="C13">
-        <v>35.100000000000001</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0.10000000000000001</v>
@@ -800,13 +790,13 @@
     </row>
     <row r="14" ht="12.75">
       <c r="A14">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="B14">
-        <v>1305</v>
+        <v>1326</v>
       </c>
       <c r="C14">
-        <v>34.899999999999999</v>
+        <v>35.100000000000001</v>
       </c>
       <c r="D14">
         <v>11</v>
@@ -817,13 +807,13 @@
     </row>
     <row r="15" ht="12.75">
       <c r="A15">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="B15">
-        <v>1283</v>
+        <v>1305</v>
       </c>
       <c r="C15">
-        <v>34.600000000000001</v>
+        <v>34.899999999999999</v>
       </c>
       <c r="D15">
         <v>11</v>
@@ -834,13 +824,13 @@
     </row>
     <row r="16" ht="12.75">
       <c r="A16">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="B16">
-        <v>1261</v>
+        <v>1283</v>
       </c>
       <c r="C16">
-        <v>34.399999999999999</v>
+        <v>34.600000000000001</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -851,16 +841,16 @@
     </row>
     <row r="17" ht="12.75">
       <c r="A17">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="B17">
-        <v>1238</v>
+        <v>1261</v>
       </c>
       <c r="C17">
-        <v>34.100000000000001</v>
+        <v>34.399999999999999</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>0.10000000000000001</v>
@@ -868,13 +858,13 @@
     </row>
     <row r="18" ht="12.75">
       <c r="A18">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="B18">
-        <v>1214</v>
+        <v>1238</v>
       </c>
       <c r="C18">
-        <v>33.799999999999997</v>
+        <v>34.100000000000001</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -885,33 +875,33 @@
     </row>
     <row r="19" ht="12.75">
       <c r="A19">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="B19">
-        <v>1188</v>
+        <v>1214</v>
       </c>
       <c r="C19">
-        <v>33.5</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>0.20000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="20" ht="12.75">
       <c r="A20">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="B20">
-        <v>1162</v>
+        <v>1188</v>
       </c>
       <c r="C20">
-        <v>33.100000000000001</v>
+        <v>33.5</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0.20000000000000001</v>
@@ -919,16 +909,16 @@
     </row>
     <row r="21" ht="12.75">
       <c r="A21">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="B21">
-        <v>1134</v>
+        <v>1162</v>
       </c>
       <c r="C21">
-        <v>32.700000000000003</v>
+        <v>33.100000000000001</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0.20000000000000001</v>
@@ -936,16 +926,16 @@
     </row>
     <row r="22" ht="12.75">
       <c r="A22">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="B22">
-        <v>1104</v>
+        <v>1134</v>
       </c>
       <c r="C22">
-        <v>32.200000000000003</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0.20000000000000001</v>
@@ -953,33 +943,33 @@
     </row>
     <row r="23" ht="12.75">
       <c r="A23">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="B23">
-        <v>1070</v>
+        <v>1104</v>
       </c>
       <c r="C23">
-        <v>31.699999999999999</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D23">
         <v>17</v>
       </c>
       <c r="E23">
-        <v>0.29999999999999999</v>
+        <v>0.20000000000000001</v>
       </c>
     </row>
     <row r="24" ht="12.75">
       <c r="A24">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="B24">
-        <v>1034</v>
+        <v>1070</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>31.699999999999999</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0.29999999999999999</v>
@@ -987,55 +977,86 @@
     </row>
     <row r="25" ht="12.75">
       <c r="A25">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="B25">
-        <v>993</v>
+        <v>1034</v>
       </c>
       <c r="C25">
-        <v>30.300000000000001</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>0.5</v>
+        <v>0.29999999999999999</v>
       </c>
     </row>
     <row r="26" ht="12.75">
       <c r="A26">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="B26">
-        <v>942</v>
+        <v>993</v>
       </c>
       <c r="C26">
-        <v>29.199999999999999</v>
+        <v>30.300000000000001</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>0.59999999999999998</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" ht="12.75">
       <c r="A27">
+        <v>2800</v>
+      </c>
+      <c r="B27">
+        <v>942</v>
+      </c>
+      <c r="C27">
+        <v>29.199999999999999</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>0.59999999999999998</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75">
+      <c r="A28">
         <v>2900</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>870</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>27.699999999999999</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>64</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>1.5</v>
       </c>
     </row>
+    <row r="29" ht="12.75"/>
+    <row r="30" ht="12.75"/>
+    <row r="31" ht="12.75"/>
+    <row r="32" ht="12.75"/>
+    <row r="33" ht="12.75"/>
+    <row r="34" ht="12.75"/>
+    <row r="35" ht="12.75"/>
+    <row r="36" ht="12.75"/>
+    <row r="37" ht="12.75"/>
+    <row r="38" ht="12.75"/>
+    <row r="39" ht="12.75"/>
+    <row r="40" ht="12.75"/>
+    <row r="41" ht="12.75"/>
+    <row r="42" ht="12.75"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51181102362204689" footer="0.51181102362204689"/>
